--- a/xlsx/country_comparison/solidarity_support_incl_info_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,64 +32,64 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum tax of 2% on billionaires'
 wealth, in voluntary countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
 investments in LICs, and at lower interest rates</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with climate Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -449,355 +455,421 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.901483019386183</v>
+        <v>0.761178476569146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.880264123060051</v>
+        <v>0.895852150397922</v>
       </c>
       <c r="D2" t="n">
-        <v>1.05362152126739</v>
+        <v>0.932026825477263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.555605761358119</v>
+        <v>0.858098708990873</v>
       </c>
       <c r="F2" t="n">
-        <v>0.681131622227</v>
+        <v>1.06279601891</v>
       </c>
       <c r="G2" t="n">
-        <v>0.802873203598552</v>
+        <v>0.670953950038193</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94598802909039</v>
+        <v>0.872461688444828</v>
       </c>
       <c r="I2" t="n">
-        <v>0.661882490394713</v>
+        <v>0.937290057057036</v>
       </c>
       <c r="J2" t="n">
-        <v>0.911431740774174</v>
+        <v>0.636056872257544</v>
       </c>
       <c r="K2" t="n">
-        <v>0.622058073740811</v>
+        <v>0.540772242722942</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.794331373295774</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.691773325636101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.552048887874987</v>
+        <v>0.551749579470587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.300883703366476</v>
+        <v>0.653590486167491</v>
       </c>
       <c r="D3" t="n">
-        <v>0.640926781503055</v>
+        <v>0.491914612942018</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0787830408643498</v>
+        <v>0.635725141681173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.147893133214746</v>
+        <v>0.921358156398924</v>
       </c>
       <c r="G3" t="n">
-        <v>0.648634771046973</v>
+        <v>0.350654007641873</v>
       </c>
       <c r="H3" t="n">
-        <v>0.549827495537084</v>
+        <v>0.767672095876074</v>
       </c>
       <c r="I3" t="n">
-        <v>0.351561096657777</v>
+        <v>0.703046044136138</v>
       </c>
       <c r="J3" t="n">
-        <v>0.504481165220283</v>
+        <v>0.518474493427509</v>
       </c>
       <c r="K3" t="n">
-        <v>0.255640668651565</v>
+        <v>0.384144223007216</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.751965023978162</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.484154068082886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.543708532229834</v>
+        <v>0.454553070765518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.638879826901314</v>
+        <v>0.525274144533854</v>
       </c>
       <c r="D4" t="n">
-        <v>0.926027177466257</v>
+        <v>0.364508952171797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.377679139634987</v>
+        <v>0.475000188335592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.391307715555862</v>
+        <v>0.788958210011978</v>
       </c>
       <c r="G4" t="n">
-        <v>0.795844279036549</v>
+        <v>0.366222937535917</v>
       </c>
       <c r="H4" t="n">
-        <v>0.805537516134621</v>
+        <v>0.708399366802593</v>
       </c>
       <c r="I4" t="n">
-        <v>0.462229225495183</v>
+        <v>0.48369630497913</v>
       </c>
       <c r="J4" t="n">
-        <v>0.653681944770383</v>
+        <v>0.39395092585433</v>
       </c>
       <c r="K4" t="n">
-        <v>0.431976778087851</v>
+        <v>0.299272317898321</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.908713414488565</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.395154128963347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428829904270095</v>
+        <v>0.382262294477109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.487259467048503</v>
+        <v>0.496703491404735</v>
       </c>
       <c r="D5" t="n">
-        <v>0.812876115263847</v>
+        <v>0.35026102931521</v>
       </c>
       <c r="E5" t="n">
-        <v>0.331365316972602</v>
+        <v>0.496693135001254</v>
       </c>
       <c r="F5" t="n">
-        <v>0.199427991157337</v>
+        <v>0.746324996119565</v>
       </c>
       <c r="G5" t="n">
-        <v>0.408373500369134</v>
+        <v>0.338735908602975</v>
       </c>
       <c r="H5" t="n">
-        <v>0.511130311515634</v>
+        <v>0.611491868607883</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00379004371792306</v>
+        <v>0.440747543586221</v>
       </c>
       <c r="J5" t="n">
-        <v>0.510546097335319</v>
+        <v>0.353273785665423</v>
       </c>
       <c r="K5" t="n">
-        <v>0.234295295504048</v>
+        <v>0.235334290850035</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.680185101310165</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.283464520778518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.37047289855028</v>
+        <v>0.369040508924186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502475667195345</v>
+        <v>0.489120083136882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.737409984412941</v>
+        <v>0.438950148375449</v>
       </c>
       <c r="E6" t="n">
-        <v>0.236746808616646</v>
+        <v>0.472759931731765</v>
       </c>
       <c r="F6" t="n">
-        <v>0.338878472337827</v>
+        <v>0.822863703667146</v>
       </c>
       <c r="G6" t="n">
-        <v>0.686604581611334</v>
+        <v>0.207817419834615</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66517594827511</v>
+        <v>0.460250935875495</v>
       </c>
       <c r="I6" t="n">
-        <v>0.46220761813654</v>
+        <v>0.490550138781554</v>
       </c>
       <c r="J6" t="n">
-        <v>0.420245746966462</v>
+        <v>0.10033221048979</v>
       </c>
       <c r="K6" t="n">
-        <v>0.258464681747236</v>
+        <v>0.339911052456622</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.395095671985647</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.241209616654179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.361314217666921</v>
+        <v>0.342743424675925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.499503956174831</v>
+        <v>0.446516440430205</v>
       </c>
       <c r="D7" t="n">
-        <v>0.721646951509828</v>
+        <v>0.55008809983196</v>
       </c>
       <c r="E7" t="n">
-        <v>0.293405186414967</v>
+        <v>0.320775525790774</v>
       </c>
       <c r="F7" t="n">
-        <v>0.378381784987611</v>
+        <v>0.664252966232775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.937147802865231</v>
+        <v>0.111255081045086</v>
       </c>
       <c r="H7" t="n">
-        <v>0.747689564048902</v>
+        <v>0.514668909199209</v>
       </c>
       <c r="I7" t="n">
-        <v>0.410126083901594</v>
+        <v>0.459914212970304</v>
       </c>
       <c r="J7" t="n">
-        <v>0.496206817150527</v>
+        <v>0.35849658459777</v>
       </c>
       <c r="K7" t="n">
-        <v>0.373918238720348</v>
+        <v>0.0840303952315517</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.627551511945665</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.301527844811607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.290454438194847</v>
+        <v>0.338741808977491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.401803027641797</v>
+        <v>0.394566768475725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.624193671493675</v>
+        <v>0.291132348713732</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0715500440551003</v>
+        <v>0.340580288860264</v>
       </c>
       <c r="F8" t="n">
-        <v>0.229981715023714</v>
+        <v>0.590354878602472</v>
       </c>
       <c r="G8" t="n">
-        <v>0.727033804641689</v>
+        <v>0.144319538073966</v>
       </c>
       <c r="H8" t="n">
-        <v>0.631609587516503</v>
+        <v>0.686423010806948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.158732345326086</v>
+        <v>0.346391501755971</v>
       </c>
       <c r="J8" t="n">
-        <v>0.315876436882555</v>
+        <v>0.183986057700056</v>
       </c>
       <c r="K8" t="n">
-        <v>0.216432104402498</v>
+        <v>0.111359901516731</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.779759303305368</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.326045712140115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.287747752829864</v>
+        <v>0.336650159936727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.306436006428208</v>
+        <v>0.373293069765764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.557927390511217</v>
+        <v>0.166967180919512</v>
       </c>
       <c r="E9" t="n">
-        <v>0.113869911203093</v>
+        <v>0.189494273948636</v>
       </c>
       <c r="F9" t="n">
-        <v>0.194417885312692</v>
+        <v>0.663789172154393</v>
       </c>
       <c r="G9" t="n">
-        <v>0.790016176065076</v>
+        <v>0.445831180492643</v>
       </c>
       <c r="H9" t="n">
-        <v>0.702325344323271</v>
+        <v>0.52871134174878</v>
       </c>
       <c r="I9" t="n">
-        <v>0.18330570713763</v>
+        <v>0.412457906447155</v>
       </c>
       <c r="J9" t="n">
-        <v>0.308427803281093</v>
+        <v>0.214981002695586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.306506097973663</v>
+        <v>0.196302179491572</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.894534658680729</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.301069403976863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.196301623945798</v>
+        <v>0.298053343572324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169701556391323</v>
+        <v>0.402112406099211</v>
       </c>
       <c r="D10" t="n">
-        <v>0.634630826736803</v>
+        <v>0.267660816914574</v>
       </c>
       <c r="E10" t="n">
-        <v>0.205301572293706</v>
+        <v>0.402724311943554</v>
       </c>
       <c r="F10" t="n">
-        <v>0.468185088327206</v>
+        <v>0.604408558655902</v>
       </c>
       <c r="G10" t="n">
-        <v>0.913327458667359</v>
+        <v>0.207836456464277</v>
       </c>
       <c r="H10" t="n">
-        <v>0.552382028996013</v>
+        <v>0.603763136885792</v>
       </c>
       <c r="I10" t="n">
-        <v>0.203239671515791</v>
+        <v>0.337848229862924</v>
       </c>
       <c r="J10" t="n">
-        <v>0.39185343819459</v>
+        <v>0.230624745092725</v>
       </c>
       <c r="K10" t="n">
-        <v>0.231397326675247</v>
+        <v>0.0775767147293557</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.732044084797925</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.22819103397452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.14043892207838</v>
+        <v>0.0176844668831876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0716495127942184</v>
+        <v>0.0737336743662293</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0676063767392587</v>
+        <v>0.124934828258788</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0671380538282531</v>
+        <v>0.135140691169575</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0563181155825672</v>
+        <v>0.105755078318908</v>
       </c>
       <c r="G11" t="n">
-        <v>0.317681246566643</v>
+        <v>-0.0880961534097285</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0884350730515679</v>
+        <v>0.0692491160691949</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.131717129212666</v>
+        <v>0.0274155111850231</v>
       </c>
       <c r="J11" t="n">
-        <v>0.10889403819128</v>
+        <v>-0.041340962122809</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.035973619707869</v>
+        <v>-0.0722955029667952</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.32820637422507</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.0381197252921961</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_incl_info_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,27 +68,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.761178476569146</v>
+        <v>0.751482634771831</v>
       </c>
       <c r="C2" t="n">
         <v>0.895852150397922</v>
@@ -482,10 +488,10 @@
         <v>1.06279601891</v>
       </c>
       <c r="G2" t="n">
-        <v>0.670953950038193</v>
+        <v>0.670953950038192</v>
       </c>
       <c r="H2" t="n">
-        <v>0.872461688444828</v>
+        <v>0.872461688444829</v>
       </c>
       <c r="I2" t="n">
         <v>0.937290057057036</v>
@@ -497,18 +503,21 @@
         <v>0.540772242722942</v>
       </c>
       <c r="L2" t="n">
+        <v>0.691987742979246</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.794331373295774</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.691773325636101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.551749579470587</v>
+        <v>0.558427563019579</v>
       </c>
       <c r="C3" t="n">
         <v>0.653590486167491</v>
@@ -538,18 +547,21 @@
         <v>0.384144223007216</v>
       </c>
       <c r="L3" t="n">
+        <v>0.611300700675122</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.751965023978162</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.484154068082886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.454553070765518</v>
+        <v>0.483636511704152</v>
       </c>
       <c r="C4" t="n">
         <v>0.525274144533854</v>
@@ -579,182 +591,197 @@
         <v>0.299272317898321</v>
       </c>
       <c r="L4" t="n">
+        <v>0.675636123809165</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.908713414488565</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.395154128963347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.382262294477109</v>
+        <v>0.378387543298655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.496703491404735</v>
+        <v>0.394566768475725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35026102931521</v>
+        <v>0.291132348713732</v>
       </c>
       <c r="E5" t="n">
-        <v>0.496693135001254</v>
+        <v>0.340580288860264</v>
       </c>
       <c r="F5" t="n">
-        <v>0.746324996119565</v>
+        <v>0.590354878602472</v>
       </c>
       <c r="G5" t="n">
-        <v>0.338735908602975</v>
+        <v>0.144319538073966</v>
       </c>
       <c r="H5" t="n">
-        <v>0.611491868607883</v>
+        <v>0.686423010806948</v>
       </c>
       <c r="I5" t="n">
-        <v>0.440747543586221</v>
+        <v>0.346391501755971</v>
       </c>
       <c r="J5" t="n">
-        <v>0.353273785665423</v>
+        <v>0.183986057700056</v>
       </c>
       <c r="K5" t="n">
-        <v>0.235334290850035</v>
+        <v>0.111359901516731</v>
       </c>
       <c r="L5" t="n">
-        <v>0.680185101310165</v>
+        <v>0.627167314757129</v>
       </c>
       <c r="M5" t="n">
-        <v>0.283464520778518</v>
+        <v>0.779759303305368</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.326045712140115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.369040508924186</v>
+        <v>0.354564120576855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.489120083136882</v>
+        <v>0.496703491404735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.438950148375449</v>
+        <v>0.35026102931521</v>
       </c>
       <c r="E6" t="n">
-        <v>0.472759931731765</v>
+        <v>0.496693135001254</v>
       </c>
       <c r="F6" t="n">
-        <v>0.822863703667146</v>
+        <v>0.746324996119565</v>
       </c>
       <c r="G6" t="n">
-        <v>0.207817419834615</v>
+        <v>0.338735908602975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.460250935875495</v>
+        <v>0.611491868607883</v>
       </c>
       <c r="I6" t="n">
-        <v>0.490550138781554</v>
+        <v>0.440747543586221</v>
       </c>
       <c r="J6" t="n">
-        <v>0.10033221048979</v>
+        <v>0.353273785665423</v>
       </c>
       <c r="K6" t="n">
-        <v>0.339911052456622</v>
+        <v>0.235334290850035</v>
       </c>
       <c r="L6" t="n">
-        <v>0.395095671985647</v>
+        <v>0.0061183841520642</v>
       </c>
       <c r="M6" t="n">
-        <v>0.241209616654179</v>
+        <v>0.680185101310165</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.283464520778518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.342743424675925</v>
+        <v>0.351476866172847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.446516440430205</v>
+        <v>0.402112406099211</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55008809983196</v>
+        <v>0.267660816914574</v>
       </c>
       <c r="E7" t="n">
-        <v>0.320775525790774</v>
+        <v>0.402724311943554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.664252966232775</v>
+        <v>0.604408558655902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.111255081045086</v>
+        <v>0.207836456464277</v>
       </c>
       <c r="H7" t="n">
-        <v>0.514668909199209</v>
+        <v>0.603763136885792</v>
       </c>
       <c r="I7" t="n">
-        <v>0.459914212970304</v>
+        <v>0.337848229862923</v>
       </c>
       <c r="J7" t="n">
-        <v>0.35849658459777</v>
+        <v>0.230624745092725</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0840303952315517</v>
+        <v>0.0775767147293557</v>
       </c>
       <c r="L7" t="n">
-        <v>0.627551511945665</v>
+        <v>0.682559960391181</v>
       </c>
       <c r="M7" t="n">
-        <v>0.301527844811607</v>
+        <v>0.732044084797924</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.22819103397452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.338741808977491</v>
+        <v>0.346707190082537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.394566768475725</v>
+        <v>0.446516440430205</v>
       </c>
       <c r="D8" t="n">
-        <v>0.291132348713732</v>
+        <v>0.55008809983196</v>
       </c>
       <c r="E8" t="n">
-        <v>0.340580288860264</v>
+        <v>0.320775525790774</v>
       </c>
       <c r="F8" t="n">
-        <v>0.590354878602472</v>
+        <v>0.664252966232775</v>
       </c>
       <c r="G8" t="n">
-        <v>0.144319538073966</v>
+        <v>0.111255081045086</v>
       </c>
       <c r="H8" t="n">
-        <v>0.686423010806948</v>
+        <v>0.514668909199209</v>
       </c>
       <c r="I8" t="n">
-        <v>0.346391501755971</v>
+        <v>0.459914212970304</v>
       </c>
       <c r="J8" t="n">
-        <v>0.183986057700056</v>
+        <v>0.35849658459777</v>
       </c>
       <c r="K8" t="n">
-        <v>0.111359901516731</v>
+        <v>0.0840303952315517</v>
       </c>
       <c r="L8" t="n">
-        <v>0.779759303305368</v>
+        <v>0.372652638106586</v>
       </c>
       <c r="M8" t="n">
-        <v>0.326045712140115</v>
+        <v>0.627551511945664</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.301527844811607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.336650159936727</v>
+        <v>0.341621608143791</v>
       </c>
       <c r="C9" t="n">
         <v>0.373293069765764</v>
@@ -784,59 +811,65 @@
         <v>0.196302179491572</v>
       </c>
       <c r="L9" t="n">
+        <v>0.377293865719788</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.894534658680729</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.301069403976863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.298053343572324</v>
+        <v>0.31375367645092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.402112406099211</v>
+        <v>0.489120083136882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.267660816914574</v>
+        <v>0.43895014837545</v>
       </c>
       <c r="E10" t="n">
-        <v>0.402724311943554</v>
+        <v>0.472759931731765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.604408558655902</v>
+        <v>0.822863703667146</v>
       </c>
       <c r="G10" t="n">
-        <v>0.207836456464277</v>
+        <v>0.207817419834615</v>
       </c>
       <c r="H10" t="n">
-        <v>0.603763136885792</v>
+        <v>0.460250935875495</v>
       </c>
       <c r="I10" t="n">
-        <v>0.337848229862924</v>
+        <v>0.490550138781554</v>
       </c>
       <c r="J10" t="n">
-        <v>0.230624745092725</v>
+        <v>0.10033221048979</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0775767147293557</v>
+        <v>0.339911052456622</v>
       </c>
       <c r="L10" t="n">
-        <v>0.732044084797925</v>
+        <v>-0.0254932073485571</v>
       </c>
       <c r="M10" t="n">
-        <v>0.22819103397452</v>
+        <v>0.395095671985647</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.241209616654179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0176844668831876</v>
+        <v>0.0232644370688756</v>
       </c>
       <c r="C11" t="n">
         <v>0.0737336743662293</v>
@@ -851,7 +884,7 @@
         <v>0.105755078318908</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0880961534097285</v>
+        <v>-0.0880961534097284</v>
       </c>
       <c r="H11" t="n">
         <v>0.0692491160691949</v>
@@ -866,9 +899,12 @@
         <v>-0.0722955029667952</v>
       </c>
       <c r="L11" t="n">
+        <v>0.04788592661802</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.32820637422507</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>-0.0381197252921961</v>
       </c>
     </row>

--- a/xlsx/country_comparison/solidarity_support_incl_info_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_mean.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.751482634771831</v>
+        <v>0.750480905905658</v>
       </c>
       <c r="C2" t="n">
         <v>0.895852150397922</v>
@@ -500,16 +500,16 @@
         <v>0.636056872257544</v>
       </c>
       <c r="K2" t="n">
-        <v>0.540772242722942</v>
+        <v>0.540833488586868</v>
       </c>
       <c r="L2" t="n">
-        <v>0.691987742979246</v>
+        <v>0.684994427052208</v>
       </c>
       <c r="M2" t="n">
         <v>0.794331373295774</v>
       </c>
       <c r="N2" t="n">
-        <v>0.691773325636101</v>
+        <v>0.691916953645142</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.558427563019579</v>
+        <v>0.55247265659607</v>
       </c>
       <c r="C3" t="n">
         <v>0.653590486167491</v>
@@ -544,16 +544,16 @@
         <v>0.518474493427509</v>
       </c>
       <c r="K3" t="n">
-        <v>0.384144223007216</v>
+        <v>0.3844769302497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.611300700675122</v>
+        <v>0.572679837389163</v>
       </c>
       <c r="M3" t="n">
         <v>0.751965023978162</v>
       </c>
       <c r="N3" t="n">
-        <v>0.484154068082886</v>
+        <v>0.484051126996374</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.483636511704152</v>
+        <v>0.480079449338372</v>
       </c>
       <c r="C4" t="n">
         <v>0.525274144533854</v>
@@ -588,16 +588,16 @@
         <v>0.39395092585433</v>
       </c>
       <c r="K4" t="n">
-        <v>0.299272317898321</v>
+        <v>0.299554385931615</v>
       </c>
       <c r="L4" t="n">
-        <v>0.675636123809165</v>
+        <v>0.649188481861327</v>
       </c>
       <c r="M4" t="n">
         <v>0.908713414488565</v>
       </c>
       <c r="N4" t="n">
-        <v>0.395154128963347</v>
+        <v>0.395528166509857</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.378387543298655</v>
+        <v>0.378764242866997</v>
       </c>
       <c r="C5" t="n">
         <v>0.394566768475725</v>
@@ -632,16 +632,16 @@
         <v>0.183986057700056</v>
       </c>
       <c r="K5" t="n">
-        <v>0.111359901516731</v>
+        <v>0.11169228057918</v>
       </c>
       <c r="L5" t="n">
-        <v>0.627167314757129</v>
+        <v>0.629942389379855</v>
       </c>
       <c r="M5" t="n">
-        <v>0.779759303305368</v>
+        <v>0.779759303305367</v>
       </c>
       <c r="N5" t="n">
-        <v>0.326045712140115</v>
+        <v>0.326278157947098</v>
       </c>
     </row>
     <row r="6">
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.354564120576855</v>
+        <v>0.351543732037051</v>
       </c>
       <c r="C6" t="n">
         <v>0.496703491404735</v>
@@ -676,16 +676,16 @@
         <v>0.353273785665423</v>
       </c>
       <c r="K6" t="n">
-        <v>0.235334290850035</v>
+        <v>0.235572583007281</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0061183841520642</v>
+        <v>-0.0291282837527572</v>
       </c>
       <c r="M6" t="n">
         <v>0.680185101310165</v>
       </c>
       <c r="N6" t="n">
-        <v>0.283464520778518</v>
+        <v>0.283454808536633</v>
       </c>
     </row>
     <row r="7">
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.351476866172847</v>
+        <v>0.35025634310265</v>
       </c>
       <c r="C7" t="n">
         <v>0.402112406099211</v>
@@ -720,16 +720,16 @@
         <v>0.230624745092725</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0775767147293557</v>
+        <v>0.0778112996303359</v>
       </c>
       <c r="L7" t="n">
-        <v>0.682559960391181</v>
+        <v>0.678885502636161</v>
       </c>
       <c r="M7" t="n">
-        <v>0.732044084797924</v>
+        <v>0.732044084797925</v>
       </c>
       <c r="N7" t="n">
-        <v>0.22819103397452</v>
+        <v>0.228454175346082</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.346707190082537</v>
+        <v>0.343504471736926</v>
       </c>
       <c r="C8" t="n">
         <v>0.446516440430205</v>
@@ -764,16 +764,16 @@
         <v>0.35849658459777</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0840303952315517</v>
+        <v>0.0841964845636908</v>
       </c>
       <c r="L8" t="n">
-        <v>0.372652638106586</v>
+        <v>0.350622027830543</v>
       </c>
       <c r="M8" t="n">
-        <v>0.627551511945664</v>
+        <v>0.627551511945665</v>
       </c>
       <c r="N8" t="n">
-        <v>0.301527844811607</v>
+        <v>0.301628017683413</v>
       </c>
     </row>
     <row r="9">
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.341621608143791</v>
+        <v>0.341548248462238</v>
       </c>
       <c r="C9" t="n">
         <v>0.373293069765764</v>
@@ -808,16 +808,16 @@
         <v>0.214981002695586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.196302179491572</v>
+        <v>0.196407827310263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.377293865719788</v>
+        <v>0.380345366744009</v>
       </c>
       <c r="M9" t="n">
         <v>0.894534658680729</v>
       </c>
       <c r="N9" t="n">
-        <v>0.301069403976863</v>
+        <v>0.301565761377154</v>
       </c>
     </row>
     <row r="10">
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31375367645092</v>
+        <v>0.314067189876321</v>
       </c>
       <c r="C10" t="n">
         <v>0.489120083136882</v>
@@ -852,16 +852,16 @@
         <v>0.10033221048979</v>
       </c>
       <c r="K10" t="n">
-        <v>0.339911052456622</v>
+        <v>0.340271717767617</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0254932073485571</v>
+        <v>-0.023705423678396</v>
       </c>
       <c r="M10" t="n">
         <v>0.395095671985647</v>
       </c>
       <c r="N10" t="n">
-        <v>0.241209616654179</v>
+        <v>0.241549262498416</v>
       </c>
     </row>
     <row r="11">
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0232644370688756</v>
+        <v>0.0189523977290343</v>
       </c>
       <c r="C11" t="n">
         <v>0.0737336743662293</v>
@@ -896,16 +896,16 @@
         <v>-0.041340962122809</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0722955029667952</v>
+        <v>-0.0721523686127008</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04788592661802</v>
+        <v>0.0139318769794177</v>
       </c>
       <c r="M11" t="n">
         <v>0.32820637422507</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0381197252921961</v>
+        <v>-0.0376248011861876</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_incl_info_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_mean.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.750480905905658</v>
+        <v>0.751312714286863</v>
       </c>
       <c r="C2" t="n">
         <v>0.895852150397922</v>
@@ -503,7 +503,7 @@
         <v>0.540833488586868</v>
       </c>
       <c r="L2" t="n">
-        <v>0.684994427052208</v>
+        <v>0.690938091049379</v>
       </c>
       <c r="M2" t="n">
         <v>0.794331373295774</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.55247265659607</v>
+        <v>0.552311017972813</v>
       </c>
       <c r="C3" t="n">
         <v>0.653590486167491</v>
@@ -547,7 +547,7 @@
         <v>0.3844769302497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.572679837389163</v>
+        <v>0.556331398643526</v>
       </c>
       <c r="M3" t="n">
         <v>0.751965023978162</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.480079449338372</v>
+        <v>0.480678748076421</v>
       </c>
       <c r="C4" t="n">
         <v>0.525274144533854</v>
@@ -591,7 +591,7 @@
         <v>0.299554385931615</v>
       </c>
       <c r="L4" t="n">
-        <v>0.649188481861327</v>
+        <v>0.640825757278445</v>
       </c>
       <c r="M4" t="n">
         <v>0.908713414488565</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.378764242866997</v>
+        <v>0.379373418323273</v>
       </c>
       <c r="C5" t="n">
         <v>0.394566768475725</v>
@@ -635,7 +635,7 @@
         <v>0.11169228057918</v>
       </c>
       <c r="L5" t="n">
-        <v>0.629942389379855</v>
+        <v>0.628339672766173</v>
       </c>
       <c r="M5" t="n">
         <v>0.779759303305367</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.351543732037051</v>
+        <v>0.351492829218294</v>
       </c>
       <c r="C6" t="n">
         <v>0.496703491404735</v>
@@ -661,7 +661,7 @@
         <v>0.496693135001254</v>
       </c>
       <c r="F6" t="n">
-        <v>0.746324996119565</v>
+        <v>0.746324996119564</v>
       </c>
       <c r="G6" t="n">
         <v>0.338735908602975</v>
@@ -679,7 +679,7 @@
         <v>0.235572583007281</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0291282837527572</v>
+        <v>-0.0300563026874272</v>
       </c>
       <c r="M6" t="n">
         <v>0.680185101310165</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35025634310265</v>
+        <v>0.35042789829748</v>
       </c>
       <c r="C7" t="n">
         <v>0.402112406099211</v>
@@ -723,7 +723,7 @@
         <v>0.0778112996303359</v>
       </c>
       <c r="L7" t="n">
-        <v>0.678885502636161</v>
+        <v>0.672466186789019</v>
       </c>
       <c r="M7" t="n">
         <v>0.732044084797925</v>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.343504471736926</v>
+        <v>0.344187928003983</v>
       </c>
       <c r="C8" t="n">
         <v>0.446516440430205</v>
@@ -767,10 +767,10 @@
         <v>0.0841964845636908</v>
       </c>
       <c r="L8" t="n">
-        <v>0.350622027830543</v>
+        <v>0.353071433941653</v>
       </c>
       <c r="M8" t="n">
-        <v>0.627551511945665</v>
+        <v>0.627551511945664</v>
       </c>
       <c r="N8" t="n">
         <v>0.301628017683413</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.341548248462238</v>
+        <v>0.341449989049043</v>
       </c>
       <c r="C9" t="n">
         <v>0.373293069765764</v>
@@ -811,7 +811,7 @@
         <v>0.196407827310263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.380345366744009</v>
+        <v>0.370048816122248</v>
       </c>
       <c r="M9" t="n">
         <v>0.894534658680729</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314067189876321</v>
+        <v>0.31420329928796</v>
       </c>
       <c r="C10" t="n">
         <v>0.489120083136882</v>
@@ -855,7 +855,7 @@
         <v>0.340271717767617</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.023705423678396</v>
+        <v>-0.0227328576067976</v>
       </c>
       <c r="M10" t="n">
         <v>0.395095671985647</v>
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0189523977290343</v>
+        <v>0.0191486240382446</v>
       </c>
       <c r="C11" t="n">
         <v>0.0737336743662293</v>
@@ -899,7 +899,7 @@
         <v>-0.0721523686127008</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0139318769794177</v>
+        <v>0.0273835716769448</v>
       </c>
       <c r="M11" t="n">
         <v>0.32820637422507</v>
